--- a/LFASS/example data file/20141104_BF_autoph_upr_HS42C_d1-14.xlsx
+++ b/LFASS/example data file/20141104_BF_autoph_upr_HS42C_d1-14.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5970ba1054a4f319/Bureau/LFASS/example data file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8377C6BCE6758EA11808E668BAAEC03D6639F53C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25C706B3-0130-40FA-8517-5CAAB821F907}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView minimized="1" xWindow="-18900" yWindow="190" windowWidth="17280" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magellan Sheet 3" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1364,1586 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Magellan Sheet 3'!$A$11:$IG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="241"/>
+                <c:pt idx="0">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1797</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1823</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1787</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1743</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1727</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1696</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1673</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1693</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1743</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1727</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1673</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B0-42F3-AF60-309B31B43057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631499647"/>
+        <c:axId val="631499231"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631499647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631499231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631499231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631499647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B251C5-E526-4E10-8416-2FE3A473083F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,19 +3230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IH170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IE34" workbookViewId="0">
-      <selection activeCell="IL48" sqref="IL48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="IG11" sqref="A11:IG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="242" max="242" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242">
+    <row r="1" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:242">
+    <row r="2" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +4692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:242">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>243</v>
       </c>
@@ -3832,7 +5417,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:242">
+    <row r="4" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2782</v>
       </c>
@@ -4560,7 +6145,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:242">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4157</v>
       </c>
@@ -5288,7 +6873,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:242">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2731</v>
       </c>
@@ -6016,7 +7601,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:242">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2551</v>
       </c>
@@ -6744,7 +8329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:242">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2602</v>
       </c>
@@ -7472,7 +9057,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:242">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3365</v>
       </c>
@@ -8200,7 +9785,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:242">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4766</v>
       </c>
@@ -8928,7 +10513,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:242">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2096</v>
       </c>
@@ -9656,7 +11241,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:242">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1964</v>
       </c>
@@ -10384,7 +11969,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:242">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -11112,7 +12697,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:242">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1895</v>
       </c>
@@ -11840,7 +13425,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:242">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1949</v>
       </c>
@@ -12568,7 +14153,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:242">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2303</v>
       </c>
@@ -13296,7 +14881,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:242">
+    <row r="17" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3034</v>
       </c>
@@ -14024,7 +15609,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:242">
+    <row r="18" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2642</v>
       </c>
@@ -14752,7 +16337,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:242">
+    <row r="19" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2584</v>
       </c>
@@ -15480,7 +17065,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:242">
+    <row r="20" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2795</v>
       </c>
@@ -16208,7 +17793,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:242">
+    <row r="21" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2162</v>
       </c>
@@ -16936,7 +18521,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:242">
+    <row r="22" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2097</v>
       </c>
@@ -17664,7 +19249,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:242">
+    <row r="23" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -18392,7 +19977,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:242">
+    <row r="24" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2110</v>
       </c>
@@ -19120,7 +20705,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:242">
+    <row r="25" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -19848,7 +21433,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:242">
+    <row r="26" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1975</v>
       </c>
@@ -20576,7 +22161,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:242">
+    <row r="27" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1919</v>
       </c>
@@ -21304,7 +22889,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:242">
+    <row r="28" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4468</v>
       </c>
@@ -22032,7 +23617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:242">
+    <row r="29" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3188</v>
       </c>
@@ -22760,7 +24345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:242">
+    <row r="30" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2438</v>
       </c>
@@ -23488,7 +25073,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:242">
+    <row r="31" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2918</v>
       </c>
@@ -24216,7 +25801,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:242">
+    <row r="32" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2500</v>
       </c>
@@ -24944,7 +26529,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:242">
+    <row r="33" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2289</v>
       </c>
@@ -25672,7 +27257,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:242">
+    <row r="34" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1966</v>
       </c>
@@ -26400,7 +27985,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:242">
+    <row r="35" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1972</v>
       </c>
@@ -27128,7 +28713,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:242">
+    <row r="36" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2089</v>
       </c>
@@ -27856,7 +29441,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:242">
+    <row r="37" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2094</v>
       </c>
@@ -28584,7 +30169,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:242">
+    <row r="38" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1948</v>
       </c>
@@ -29312,7 +30897,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:242">
+    <row r="39" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1918</v>
       </c>
@@ -30040,7 +31625,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:242">
+    <row r="40" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2468</v>
       </c>
@@ -30768,7 +32353,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:242">
+    <row r="41" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2037</v>
       </c>
@@ -31496,7 +33081,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:242">
+    <row r="42" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2542</v>
       </c>
@@ -32224,7 +33809,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:242">
+    <row r="43" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2579</v>
       </c>
@@ -32952,7 +34537,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:242">
+    <row r="44" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2366</v>
       </c>
@@ -33680,7 +35265,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:242">
+    <row r="45" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2271</v>
       </c>
@@ -34408,7 +35993,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:242">
+    <row r="46" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3322</v>
       </c>
@@ -35136,7 +36721,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:242">
+    <row r="47" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3347</v>
       </c>
@@ -35864,7 +37449,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:242">
+    <row r="48" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3285</v>
       </c>
@@ -36592,7 +38177,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:242">
+    <row r="49" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -37320,7 +38905,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:242">
+    <row r="50" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5384</v>
       </c>
@@ -38048,7 +39633,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:242">
+    <row r="51" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2011</v>
       </c>
@@ -38776,7 +40361,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:242">
+    <row r="52" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2415</v>
       </c>
@@ -39504,7 +41089,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:242">
+    <row r="53" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2003</v>
       </c>
@@ -40232,7 +41817,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="1:242">
+    <row r="54" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2448</v>
       </c>
@@ -40960,7 +42545,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:242">
+    <row r="55" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2176</v>
       </c>
@@ -41688,7 +43273,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:242">
+    <row r="56" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2577</v>
       </c>
@@ -42416,7 +44001,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:242">
+    <row r="57" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4724</v>
       </c>
@@ -43144,7 +44729,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:242">
+    <row r="58" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2750</v>
       </c>
@@ -43872,7 +45457,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="1:242">
+    <row r="59" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -44600,7 +46185,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:242">
+    <row r="60" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2048</v>
       </c>
@@ -45328,7 +46913,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:242">
+    <row r="61" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2094</v>
       </c>
@@ -46056,7 +47641,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:242">
+    <row r="62" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1984</v>
       </c>
@@ -46784,7 +48369,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:242">
+    <row r="63" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -47512,7 +49097,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:242">
+    <row r="64" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2295</v>
       </c>
@@ -48240,7 +49825,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:242">
+    <row r="65" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3262</v>
       </c>
@@ -48968,7 +50553,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:242">
+    <row r="66" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2858</v>
       </c>
@@ -49696,7 +51281,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" spans="1:242">
+    <row r="67" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2779</v>
       </c>
@@ -50424,7 +52009,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:242">
+    <row r="68" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3035</v>
       </c>
@@ -51152,7 +52737,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:242">
+    <row r="69" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3044</v>
       </c>
@@ -51880,7 +53465,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:242">
+    <row r="70" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1909</v>
       </c>
@@ -52608,7 +54193,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="71" spans="1:242">
+    <row r="71" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1923</v>
       </c>
@@ -53336,7 +54921,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:242">
+    <row r="72" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>9107</v>
       </c>
@@ -54064,7 +55649,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="73" spans="1:242">
+    <row r="73" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>10222</v>
       </c>
@@ -54792,7 +56377,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:242">
+    <row r="74" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2024</v>
       </c>
@@ -55520,7 +57105,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:242">
+    <row r="75" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1886</v>
       </c>
@@ -56248,7 +57833,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:242">
+    <row r="76" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2261</v>
       </c>
@@ -56976,7 +58561,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:242">
+    <row r="77" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2707</v>
       </c>
@@ -57704,7 +59289,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:242">
+    <row r="78" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2611</v>
       </c>
@@ -58432,7 +60017,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:242">
+    <row r="79" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2438</v>
       </c>
@@ -59160,7 +60745,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:242">
+    <row r="80" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2461</v>
       </c>
@@ -59888,7 +61473,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:242">
+    <row r="81" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2886</v>
       </c>
@@ -60616,7 +62201,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:242">
+    <row r="82" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3004</v>
       </c>
@@ -61344,7 +62929,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="1:242">
+    <row r="83" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5526</v>
       </c>
@@ -62072,7 +63657,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:242">
+    <row r="84" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3890</v>
       </c>
@@ -62800,7 +64385,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:242">
+    <row r="85" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4541</v>
       </c>
@@ -63528,7 +65113,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:242">
+    <row r="86" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2552</v>
       </c>
@@ -64256,7 +65841,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:242">
+    <row r="87" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5355</v>
       </c>
@@ -64984,7 +66569,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:242">
+    <row r="88" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2407</v>
       </c>
@@ -65712,7 +67297,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:242">
+    <row r="89" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2404</v>
       </c>
@@ -66440,7 +68025,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="90" spans="1:242">
+    <row r="90" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2348</v>
       </c>
@@ -67168,7 +68753,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:242">
+    <row r="91" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2585</v>
       </c>
@@ -67896,7 +69481,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:242">
+    <row r="92" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2720</v>
       </c>
@@ -68624,7 +70209,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:242">
+    <row r="93" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2273</v>
       </c>
@@ -69352,7 +70937,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:242">
+    <row r="94" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4271</v>
       </c>
@@ -70080,7 +71665,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="95" spans="1:242">
+    <row r="95" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2534</v>
       </c>
@@ -70808,7 +72393,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:242">
+    <row r="96" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2006</v>
       </c>
@@ -71536,7 +73121,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:242">
+    <row r="97" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1937</v>
       </c>
@@ -72264,7 +73849,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="98" spans="1:242">
+    <row r="98" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1930</v>
       </c>
@@ -72992,7 +74577,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="99" spans="1:242">
+    <row r="99" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1907</v>
       </c>
@@ -73720,7 +75305,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="100" spans="1:242">
+    <row r="100" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2556</v>
       </c>
@@ -74448,7 +76033,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="101" spans="1:242">
+    <row r="101" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3212</v>
       </c>
@@ -75176,7 +76761,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:242">
+    <row r="102" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2842</v>
       </c>
@@ -75904,7 +77489,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:242">
+    <row r="103" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4034</v>
       </c>
@@ -76632,7 +78217,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:242">
+    <row r="104" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2692</v>
       </c>
@@ -77360,7 +78945,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="105" spans="1:242">
+    <row r="105" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3910</v>
       </c>
@@ -78088,7 +79673,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:242">
+    <row r="106" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4961</v>
       </c>
@@ -78816,7 +80401,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="107" spans="1:242">
+    <row r="107" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3038</v>
       </c>
@@ -79544,7 +81129,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:242">
+    <row r="108" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1931</v>
       </c>
@@ -80272,7 +81857,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:242">
+    <row r="109" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1940</v>
       </c>
@@ -81000,7 +82585,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:242">
+    <row r="110" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1869</v>
       </c>
@@ -81728,7 +83313,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="111" spans="1:242">
+    <row r="111" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1926</v>
       </c>
@@ -82456,7 +84041,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="112" spans="1:242">
+    <row r="112" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2315</v>
       </c>
@@ -83184,7 +84769,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="113" spans="1:242">
+    <row r="113" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2605</v>
       </c>
@@ -83912,7 +85497,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="114" spans="1:242">
+    <row r="114" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2344</v>
       </c>
@@ -84640,7 +86225,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:242">
+    <row r="115" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2085</v>
       </c>
@@ -85368,7 +86953,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:242">
+    <row r="116" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2093</v>
       </c>
@@ -86096,7 +87681,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="1:242">
+    <row r="117" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2766</v>
       </c>
@@ -86824,7 +88409,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:242">
+    <row r="118" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2276</v>
       </c>
@@ -87552,7 +89137,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:242">
+    <row r="119" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1869</v>
       </c>
@@ -88280,7 +89865,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:242">
+    <row r="120" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1911</v>
       </c>
@@ -89008,7 +90593,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:242">
+    <row r="121" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2341</v>
       </c>
@@ -89736,7 +91321,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="122" spans="1:242">
+    <row r="122" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1911</v>
       </c>
@@ -90464,7 +92049,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="123" spans="1:242">
+    <row r="123" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1943</v>
       </c>
@@ -91192,7 +92777,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="124" spans="1:242">
+    <row r="124" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1992</v>
       </c>
@@ -91920,7 +93505,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="125" spans="1:242">
+    <row r="125" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -92648,7 +94233,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:242">
+    <row r="126" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2173</v>
       </c>
@@ -93376,7 +94961,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:242">
+    <row r="127" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2128</v>
       </c>
@@ -94104,7 +95689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:242">
+    <row r="128" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2264</v>
       </c>
@@ -94832,7 +96417,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" spans="1:242">
+    <row r="129" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2404</v>
       </c>
@@ -95560,7 +97145,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="1:242">
+    <row r="130" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2288</v>
       </c>
@@ -96288,7 +97873,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="1:242">
+    <row r="131" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3025</v>
       </c>
@@ -97016,7 +98601,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:242">
+    <row r="132" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3201</v>
       </c>
@@ -97744,7 +99329,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="1:242">
+    <row r="133" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4536</v>
       </c>
@@ -98472,7 +100057,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="134" spans="1:242">
+    <row r="134" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3654</v>
       </c>
@@ -99200,7 +100785,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135" spans="1:242">
+    <row r="135" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1908</v>
       </c>
@@ -99928,177 +101513,177 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" spans="1:242">
+    <row r="136" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:242">
+    <row r="137" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:242">
+    <row r="138" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="139" spans="1:242">
+    <row r="139" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:242">
+    <row r="140" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:242">
+    <row r="141" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:242">
+    <row r="142" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:242">
+    <row r="143" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:242">
+    <row r="144" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>285</v>
       </c>
@@ -100106,6 +101691,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -100115,12 +101701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -100132,12 +101718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
